--- a/out/factor_values.xlsx
+++ b/out/factor_values.xlsx
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>5062.013458560402</v>
+        <v>5086.153335856128</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -519,16 +519,16 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I2" t="n">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="J2" t="n">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7891566265060241</v>
       </c>
     </row>
     <row r="3">
@@ -551,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>5062.013458560402</v>
+        <v>5086.153335856128</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -560,16 +560,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>11574</v>
+        <v>11580</v>
       </c>
       <c r="I3" t="n">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J3" t="n">
-        <v>12241</v>
+        <v>12246</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05448901233559349</v>
+        <v>0.05438510534051935</v>
       </c>
     </row>
     <row r="4">
@@ -592,25 +592,25 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="F4" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="G4" t="n">
         <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I4" t="n">
         <v>219</v>
       </c>
       <c r="J4" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4591194968553459</v>
+        <v>0.4600840336134454</v>
       </c>
     </row>
     <row r="5">
@@ -633,25 +633,25 @@
         <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="F5" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="G5" t="n">
         <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I5" t="n">
         <v>34</v>
       </c>
       <c r="J5" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3434343434343434</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="6">
@@ -674,10 +674,10 @@
         <v>16</v>
       </c>
       <c r="E6" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="F6" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="G6" t="n">
         <v>13</v>
@@ -686,13 +686,13 @@
         <v>129</v>
       </c>
       <c r="I6" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J6" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2989130434782609</v>
+        <v>0.3064516129032258</v>
       </c>
     </row>
     <row r="7">
@@ -715,10 +715,10 @@
         <v>16</v>
       </c>
       <c r="E7" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="F7" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="G7" t="n">
         <v>9</v>
@@ -727,13 +727,13 @@
         <v>137</v>
       </c>
       <c r="I7" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J7" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2634408602150538</v>
+        <v>0.267379679144385</v>
       </c>
     </row>
     <row r="8">
@@ -756,25 +756,25 @@
         <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="F8" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="G8" t="n">
         <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I8" t="n">
         <v>38</v>
       </c>
       <c r="J8" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2467532467532468</v>
+        <v>0.2435897435897436</v>
       </c>
     </row>
     <row r="9">
@@ -797,25 +797,25 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="F9" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="G9" t="n">
         <v>12</v>
       </c>
       <c r="H9" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I9" t="n">
         <v>34</v>
       </c>
       <c r="J9" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2428571428571429</v>
+        <v>0.2411347517730496</v>
       </c>
     </row>
     <row r="10">
@@ -838,10 +838,10 @@
         <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="F10" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="G10" t="n">
         <v>8</v>
@@ -879,25 +879,25 @@
         <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="F11" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="G11" t="n">
         <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I11" t="n">
         <v>40</v>
       </c>
       <c r="J11" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2197802197802198</v>
+        <v>0.2150537634408602</v>
       </c>
     </row>
     <row r="12">
@@ -920,25 +920,25 @@
         <v>16</v>
       </c>
       <c r="E12" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="F12" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="G12" t="n">
         <v>7</v>
       </c>
       <c r="H12" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I12" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J12" t="n">
         <v>730</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1808219178082192</v>
+        <v>0.1794520547945206</v>
       </c>
     </row>
     <row r="13">
@@ -961,25 +961,25 @@
         <v>16</v>
       </c>
       <c r="E13" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="F13" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="G13" t="n">
         <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="I13" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J13" t="n">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="K13" t="n">
-        <v>0.150253807106599</v>
+        <v>0.1515768056968464</v>
       </c>
     </row>
     <row r="14">
@@ -1002,25 +1002,25 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="F14" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="G14" t="n">
         <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="I14" t="n">
         <v>108</v>
       </c>
       <c r="J14" t="n">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1150159744408946</v>
+        <v>0.1147715196599362</v>
       </c>
     </row>
     <row r="15">
@@ -1043,25 +1043,25 @@
         <v>16</v>
       </c>
       <c r="E15" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="F15" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="I15" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J15" t="n">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="K15" t="n">
-        <v>0.09540636042402827</v>
+        <v>0.0960352422907489</v>
       </c>
     </row>
     <row r="16">
@@ -1084,25 +1084,25 @@
         <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="F16" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="I16" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J16" t="n">
         <v>1240</v>
       </c>
       <c r="K16" t="n">
-        <v>0.075</v>
+        <v>0.07661290322580645</v>
       </c>
     </row>
     <row r="17">
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="F17" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>1492</v>
+        <v>1482</v>
       </c>
       <c r="I17" t="n">
         <v>97</v>
       </c>
       <c r="J17" t="n">
-        <v>1589</v>
+        <v>1579</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06104468219005664</v>
+        <v>0.06143128562381254</v>
       </c>
     </row>
     <row r="18">
@@ -1166,25 +1166,25 @@
         <v>16</v>
       </c>
       <c r="E18" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="F18" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>2515</v>
+        <v>2517</v>
       </c>
       <c r="I18" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J18" t="n">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="K18" t="n">
-        <v>0.04698749526335733</v>
+        <v>0.04659090909090909</v>
       </c>
     </row>
     <row r="19">
@@ -1207,25 +1207,25 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>1201.084055545566</v>
+        <v>1204.914932712188</v>
       </c>
       <c r="F19" t="n">
-        <v>9.572574959585271e-247</v>
+        <v>1.439258204408449e-247</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2144</v>
+        <v>2153</v>
       </c>
       <c r="I19" t="n">
         <v>99</v>
       </c>
       <c r="J19" t="n">
-        <v>2243</v>
+        <v>2252</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04413731609451627</v>
+        <v>0.04396092362344583</v>
       </c>
     </row>
     <row r="20">
@@ -1248,25 +1248,25 @@
         <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>908.9557835042174</v>
+        <v>915.4726472302203</v>
       </c>
       <c r="F20" t="n">
-        <v>1.109051363170596e-199</v>
+        <v>4.248980687842385e-201</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1193</v>
+        <v>1198</v>
       </c>
       <c r="I20" t="n">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="J20" t="n">
-        <v>1752</v>
+        <v>1761</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3190639269406393</v>
+        <v>0.3197047132311187</v>
       </c>
     </row>
     <row r="21">
@@ -1289,25 +1289,25 @@
         <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>908.9557835042174</v>
+        <v>915.4726472302203</v>
       </c>
       <c r="F21" t="n">
-        <v>1.109051363170596e-199</v>
+        <v>4.248980687842385e-201</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>10589</v>
+        <v>10592</v>
       </c>
       <c r="I21" t="n">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J21" t="n">
-        <v>11477</v>
+        <v>11481</v>
       </c>
       <c r="K21" t="n">
-        <v>0.07737213557549882</v>
+        <v>0.07743227941816914</v>
       </c>
     </row>
     <row r="22">
@@ -1330,25 +1330,25 @@
         <v>16</v>
       </c>
       <c r="E22" t="n">
-        <v>384.3171526993451</v>
+        <v>392.3837685207457</v>
       </c>
       <c r="F22" t="n">
-        <v>1.358657888241235e-72</v>
+        <v>2.752934587762642e-74</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I22" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J22" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.3990610328638498</v>
       </c>
     </row>
     <row r="23">
@@ -1371,25 +1371,25 @@
         <v>16</v>
       </c>
       <c r="E23" t="n">
-        <v>384.3171526993451</v>
+        <v>392.3837685207457</v>
       </c>
       <c r="F23" t="n">
-        <v>1.358657888241235e-72</v>
+        <v>2.752934587762642e-74</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I23" t="n">
         <v>80</v>
       </c>
       <c r="J23" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2787456445993031</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="24">
@@ -1412,10 +1412,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>384.3171526993451</v>
+        <v>392.3837685207457</v>
       </c>
       <c r="F24" t="n">
-        <v>1.358657888241235e-72</v>
+        <v>2.752934587762642e-74</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1424,13 +1424,13 @@
         <v>744</v>
       </c>
       <c r="I24" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J24" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1806167400881057</v>
+        <v>0.1815181518151815</v>
       </c>
     </row>
     <row r="25">
@@ -1453,25 +1453,25 @@
         <v>16</v>
       </c>
       <c r="E25" t="n">
-        <v>384.3171526993451</v>
+        <v>392.3837685207457</v>
       </c>
       <c r="F25" t="n">
-        <v>1.358657888241235e-72</v>
+        <v>2.752934587762642e-74</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>4398</v>
+        <v>4400</v>
       </c>
       <c r="I25" t="n">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="J25" t="n">
-        <v>4910</v>
+        <v>4916</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1042769857433809</v>
+        <v>0.1049633848657445</v>
       </c>
     </row>
     <row r="26">
@@ -1494,25 +1494,25 @@
         <v>16</v>
       </c>
       <c r="E26" t="n">
-        <v>384.3171526993451</v>
+        <v>392.3837685207457</v>
       </c>
       <c r="F26" t="n">
-        <v>1.358657888241235e-72</v>
+        <v>2.752934587762642e-74</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6301</v>
+        <v>6308</v>
       </c>
       <c r="I26" t="n">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J26" t="n">
-        <v>6908</v>
+        <v>6914</v>
       </c>
       <c r="K26" t="n">
-        <v>0.08786913723219456</v>
+        <v>0.08764824992768296</v>
       </c>
     </row>
     <row r="27">
@@ -1535,10 +1535,10 @@
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>334.2336581984052</v>
+        <v>335.8134709170386</v>
       </c>
       <c r="F27" t="n">
-        <v>1.400057343459844e-66</v>
+        <v>6.459790618508831e-67</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1546,16 +1546,16 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3086</v>
+        <v>3088</v>
       </c>
       <c r="I27" t="n">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="J27" t="n">
-        <v>3735</v>
+        <v>3739</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1737617135207497</v>
+        <v>0.1741107247927253</v>
       </c>
     </row>
     <row r="28">
@@ -1578,10 +1578,10 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>334.2336581984052</v>
+        <v>335.8134709170386</v>
       </c>
       <c r="F28" t="n">
-        <v>1.400057343459844e-66</v>
+        <v>6.459790618508831e-67</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1589,16 +1589,16 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>4730</v>
+        <v>4732</v>
       </c>
       <c r="I28" t="n">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="J28" t="n">
-        <v>5329</v>
+        <v>5334</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1124038281103397</v>
+        <v>0.1128608923884514</v>
       </c>
     </row>
     <row r="29">
@@ -1621,10 +1621,10 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>334.2336581984052</v>
+        <v>335.8134709170386</v>
       </c>
       <c r="F29" t="n">
-        <v>1.400057343459844e-66</v>
+        <v>6.459790618508831e-67</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1632,16 +1632,16 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I29" t="n">
         <v>10</v>
       </c>
       <c r="J29" t="n">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K29" t="n">
-        <v>0.05988023952095808</v>
+        <v>0.06097560975609756</v>
       </c>
     </row>
     <row r="30">
@@ -1664,10 +1664,10 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>334.2336581984052</v>
+        <v>335.8134709170386</v>
       </c>
       <c r="F30" t="n">
-        <v>1.400057343459844e-66</v>
+        <v>6.459790618508831e-67</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1675,16 +1675,16 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="I30" t="n">
         <v>44</v>
       </c>
       <c r="J30" t="n">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="K30" t="n">
-        <v>0.05843293492695883</v>
+        <v>0.05789473684210526</v>
       </c>
     </row>
     <row r="31">
@@ -1707,10 +1707,10 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>334.2336581984052</v>
+        <v>335.8134709170386</v>
       </c>
       <c r="F31" t="n">
-        <v>1.400057343459844e-66</v>
+        <v>6.459790618508831e-67</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1718,16 +1718,16 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="I31" t="n">
         <v>21</v>
       </c>
       <c r="J31" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K31" t="n">
-        <v>0.05011933174224344</v>
+        <v>0.0498812351543943</v>
       </c>
     </row>
     <row r="32">
@@ -1750,10 +1750,10 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>334.2336581984052</v>
+        <v>335.8134709170386</v>
       </c>
       <c r="F32" t="n">
-        <v>1.400057343459844e-66</v>
+        <v>6.459790618508831e-67</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1761,16 +1761,16 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="I32" t="n">
         <v>111</v>
       </c>
       <c r="J32" t="n">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="K32" t="n">
-        <v>0.04669751787968027</v>
+        <v>0.04671717171717172</v>
       </c>
     </row>
     <row r="33">
@@ -1793,10 +1793,10 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>334.2336581984052</v>
+        <v>335.8134709170386</v>
       </c>
       <c r="F33" t="n">
-        <v>1.400057343459844e-66</v>
+        <v>6.459790618508831e-67</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I33" t="n">
         <v>13</v>
       </c>
       <c r="J33" t="n">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0289532293986637</v>
+        <v>0.02901785714285714</v>
       </c>
     </row>
     <row r="34">
@@ -1836,25 +1836,25 @@
         <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>109.2587322909771</v>
+        <v>109.391853707005</v>
       </c>
       <c r="F34" t="n">
-        <v>1.424268573634559e-25</v>
+        <v>1.331757529725758e-25</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>6863</v>
+        <v>6864</v>
       </c>
       <c r="I34" t="n">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="J34" t="n">
-        <v>7913</v>
+        <v>7917</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1326930367749273</v>
+        <v>0.1330049261083744</v>
       </c>
     </row>
     <row r="35">
@@ -1877,25 +1877,25 @@
         <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>109.2587322909771</v>
+        <v>109.391853707005</v>
       </c>
       <c r="F35" t="n">
-        <v>1.424268573634559e-25</v>
+        <v>1.331757529725758e-25</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>4919</v>
+        <v>4926</v>
       </c>
       <c r="I35" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J35" t="n">
-        <v>5316</v>
+        <v>5325</v>
       </c>
       <c r="K35" t="n">
-        <v>0.07468021068472536</v>
+        <v>0.07492957746478873</v>
       </c>
     </row>
     <row r="36">
@@ -1918,25 +1918,25 @@
         <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>85.03539735886675</v>
+        <v>86.00805738538253</v>
       </c>
       <c r="F36" t="n">
-        <v>2.930712052604616e-20</v>
+        <v>1.792039823210119e-20</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>7723</v>
+        <v>7714</v>
       </c>
       <c r="I36" t="n">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="J36" t="n">
-        <v>8847</v>
+        <v>8841</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1270487170792359</v>
+        <v>0.1274742676167854</v>
       </c>
     </row>
     <row r="37">
@@ -1959,25 +1959,25 @@
         <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>85.03539735886675</v>
+        <v>86.00805738538253</v>
       </c>
       <c r="F37" t="n">
-        <v>2.930712052604616e-20</v>
+        <v>1.792039823210119e-20</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>4059</v>
+        <v>4076</v>
       </c>
       <c r="I37" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J37" t="n">
-        <v>4382</v>
+        <v>4401</v>
       </c>
       <c r="K37" t="n">
-        <v>0.07371063441350981</v>
+        <v>0.07384685298795728</v>
       </c>
     </row>
     <row r="38">
@@ -2000,25 +2000,25 @@
         <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>40.67857666800625</v>
+        <v>42.314501917315</v>
       </c>
       <c r="F38" t="n">
-        <v>1.794437343421407e-10</v>
+        <v>7.771416267429973e-11</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I38" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J38" t="n">
         <v>1591</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1565053425518542</v>
+        <v>0.1577624135763671</v>
       </c>
     </row>
     <row r="39">
@@ -2041,25 +2041,25 @@
         <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>40.67857666800625</v>
+        <v>42.314501917315</v>
       </c>
       <c r="F39" t="n">
-        <v>1.794437343421407e-10</v>
+        <v>7.771416267429973e-11</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>10440</v>
+        <v>10450</v>
       </c>
       <c r="I39" t="n">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="J39" t="n">
-        <v>11638</v>
+        <v>11651</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1029386492524489</v>
+        <v>0.1030812805767745</v>
       </c>
     </row>
     <row r="40">
@@ -2082,25 +2082,25 @@
         <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>34.30570374311844</v>
+        <v>34.81280277953115</v>
       </c>
       <c r="F40" t="n">
-        <v>4.709993648472096e-09</v>
+        <v>3.629786486834646e-09</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>6013</v>
+        <v>6020</v>
       </c>
       <c r="I40" t="n">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="J40" t="n">
-        <v>6870</v>
+        <v>6881</v>
       </c>
       <c r="K40" t="n">
-        <v>0.124745269286754</v>
+        <v>0.1251271617497457</v>
       </c>
     </row>
     <row r="41">
@@ -2123,25 +2123,25 @@
         <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>34.30570374311844</v>
+        <v>34.81280277953115</v>
       </c>
       <c r="F41" t="n">
-        <v>4.709993648472096e-09</v>
+        <v>3.629786486834646e-09</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>5769</v>
+        <v>5770</v>
       </c>
       <c r="I41" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="J41" t="n">
-        <v>6359</v>
+        <v>6361</v>
       </c>
       <c r="K41" t="n">
-        <v>0.09278188394401636</v>
+        <v>0.09290991982392706</v>
       </c>
     </row>
   </sheetData>

--- a/out/factor_values.xlsx
+++ b/out/factor_values.xlsx
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>5086.153335856128</v>
+        <v>5084.708078551253</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -519,16 +519,16 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I2" t="n">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="J2" t="n">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7891566265060241</v>
+        <v>0.7887887887887888</v>
       </c>
     </row>
     <row r="3">
@@ -551,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>5086.153335856128</v>
+        <v>5084.708078551253</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -560,16 +560,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>11580</v>
+        <v>11585</v>
       </c>
       <c r="I3" t="n">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="J3" t="n">
-        <v>12246</v>
+        <v>12253</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05438510534051935</v>
+        <v>0.05451726107891945</v>
       </c>
     </row>
     <row r="4">
@@ -592,25 +592,25 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="F4" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="G4" t="n">
         <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I4" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J4" t="n">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4600840336134454</v>
+        <v>0.4698275862068966</v>
       </c>
     </row>
     <row r="5">
@@ -633,25 +633,25 @@
         <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="F5" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="G5" t="n">
         <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K5" t="n">
-        <v>0.34</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="6">
@@ -674,10 +674,10 @@
         <v>16</v>
       </c>
       <c r="E6" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="F6" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="G6" t="n">
         <v>13</v>
@@ -686,13 +686,13 @@
         <v>129</v>
       </c>
       <c r="I6" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J6" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3064516129032258</v>
+        <v>0.2989130434782609</v>
       </c>
     </row>
     <row r="7">
@@ -715,25 +715,25 @@
         <v>16</v>
       </c>
       <c r="E7" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="F7" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="G7" t="n">
         <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
       </c>
       <c r="J7" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K7" t="n">
-        <v>0.267379679144385</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="8">
@@ -756,25 +756,25 @@
         <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="F8" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J8" t="n">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2435897435897436</v>
+        <v>0.2447552447552448</v>
       </c>
     </row>
     <row r="9">
@@ -797,25 +797,25 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="F9" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="I9" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J9" t="n">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2411347517730496</v>
+        <v>0.2420382165605096</v>
       </c>
     </row>
     <row r="10">
@@ -838,10 +838,10 @@
         <v>16</v>
       </c>
       <c r="E10" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="F10" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="G10" t="n">
         <v>8</v>
@@ -879,25 +879,25 @@
         <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="F11" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="G11" t="n">
         <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I11" t="n">
         <v>40</v>
       </c>
       <c r="J11" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2150537634408602</v>
+        <v>0.213903743315508</v>
       </c>
     </row>
     <row r="12">
@@ -920,10 +920,10 @@
         <v>16</v>
       </c>
       <c r="E12" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="F12" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="G12" t="n">
         <v>7</v>
@@ -932,13 +932,13 @@
         <v>599</v>
       </c>
       <c r="I12" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J12" t="n">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1794520547945206</v>
+        <v>0.1805745554035568</v>
       </c>
     </row>
     <row r="13">
@@ -961,10 +961,10 @@
         <v>16</v>
       </c>
       <c r="E13" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="F13" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="G13" t="n">
         <v>6</v>
@@ -973,13 +973,13 @@
         <v>834</v>
       </c>
       <c r="I13" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J13" t="n">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1515768056968464</v>
+        <v>0.1507128309572301</v>
       </c>
     </row>
     <row r="14">
@@ -1002,25 +1002,25 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="F14" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="G14" t="n">
         <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="I14" t="n">
         <v>108</v>
       </c>
       <c r="J14" t="n">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1147715196599362</v>
+        <v>0.1160042964554243</v>
       </c>
     </row>
     <row r="15">
@@ -1043,25 +1043,25 @@
         <v>16</v>
       </c>
       <c r="E15" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="F15" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="I15" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J15" t="n">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0960352422907489</v>
+        <v>0.09700176366843033</v>
       </c>
     </row>
     <row r="16">
@@ -1084,25 +1084,25 @@
         <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="F16" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="I16" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J16" t="n">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="K16" t="n">
-        <v>0.07661290322580645</v>
+        <v>0.07779578606158834</v>
       </c>
     </row>
     <row r="17">
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="F17" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>1482</v>
+        <v>1495</v>
       </c>
       <c r="I17" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J17" t="n">
-        <v>1579</v>
+        <v>1593</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06143128562381254</v>
+        <v>0.06151914626490897</v>
       </c>
     </row>
     <row r="18">
@@ -1166,25 +1166,25 @@
         <v>16</v>
       </c>
       <c r="E18" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="F18" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>2517</v>
+        <v>2525</v>
       </c>
       <c r="I18" t="n">
         <v>123</v>
       </c>
       <c r="J18" t="n">
-        <v>2640</v>
+        <v>2648</v>
       </c>
       <c r="K18" t="n">
-        <v>0.04659090909090909</v>
+        <v>0.04645015105740181</v>
       </c>
     </row>
     <row r="19">
@@ -1207,25 +1207,25 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>1204.914932712188</v>
+        <v>1219.647613092101</v>
       </c>
       <c r="F19" t="n">
-        <v>1.439258204408449e-247</v>
+        <v>9.845271300420358e-251</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2153</v>
+        <v>2165</v>
       </c>
       <c r="I19" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J19" t="n">
-        <v>2252</v>
+        <v>2266</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04396092362344583</v>
+        <v>0.04457193292144748</v>
       </c>
     </row>
     <row r="20">
@@ -1248,25 +1248,25 @@
         <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>915.4726472302203</v>
+        <v>900.9033892294275</v>
       </c>
       <c r="F20" t="n">
-        <v>4.248980687842385e-201</v>
+        <v>6.243597253286266e-198</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="I20" t="n">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="J20" t="n">
-        <v>1761</v>
+        <v>1747</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3197047132311187</v>
+        <v>0.3194046937607327</v>
       </c>
     </row>
     <row r="21">
@@ -1289,25 +1289,25 @@
         <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>915.4726472302203</v>
+        <v>900.9033892294275</v>
       </c>
       <c r="F21" t="n">
-        <v>4.248980687842385e-201</v>
+        <v>6.243597253286266e-198</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>10592</v>
+        <v>10607</v>
       </c>
       <c r="I21" t="n">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="J21" t="n">
-        <v>11481</v>
+        <v>11505</v>
       </c>
       <c r="K21" t="n">
-        <v>0.07743227941816914</v>
+        <v>0.07805302042590179</v>
       </c>
     </row>
     <row r="22">
@@ -1323,32 +1323,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>float64</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>16</v>
       </c>
       <c r="E22" t="n">
-        <v>392.3837685207457</v>
+        <v>397.6277361644023</v>
       </c>
       <c r="F22" t="n">
-        <v>2.752934587762642e-74</v>
+        <v>2.179542287274404e-75</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I22" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J22" t="n">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3990610328638498</v>
+        <v>0.4077669902912621</v>
       </c>
     </row>
     <row r="23">
@@ -1364,32 +1364,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>float64</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>16</v>
       </c>
       <c r="E23" t="n">
-        <v>392.3837685207457</v>
+        <v>397.6277361644023</v>
       </c>
       <c r="F23" t="n">
-        <v>2.752934587762642e-74</v>
+        <v>2.179542287274404e-75</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I23" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J23" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2758620689655172</v>
+        <v>0.2764505119453925</v>
       </c>
     </row>
     <row r="24">
@@ -1405,32 +1405,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>float64</t>
         </is>
       </c>
       <c r="D24" t="n">
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>392.3837685207457</v>
+        <v>397.6277361644023</v>
       </c>
       <c r="F24" t="n">
-        <v>2.752934587762642e-74</v>
+        <v>2.179542287274404e-75</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I24" t="n">
         <v>165</v>
       </c>
       <c r="J24" t="n">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1815181518151815</v>
+        <v>0.1817180616740088</v>
       </c>
     </row>
     <row r="25">
@@ -1446,32 +1446,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>float64</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>16</v>
       </c>
       <c r="E25" t="n">
-        <v>392.3837685207457</v>
+        <v>397.6277361644023</v>
       </c>
       <c r="F25" t="n">
-        <v>2.752934587762642e-74</v>
+        <v>2.179542287274404e-75</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>4400</v>
+        <v>4402</v>
       </c>
       <c r="I25" t="n">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="J25" t="n">
-        <v>4916</v>
+        <v>4920</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1049633848657445</v>
+        <v>0.1052845528455285</v>
       </c>
     </row>
     <row r="26">
@@ -1487,32 +1487,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>int64</t>
+          <t>float64</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>16</v>
       </c>
       <c r="E26" t="n">
-        <v>392.3837685207457</v>
+        <v>397.6277361644023</v>
       </c>
       <c r="F26" t="n">
-        <v>2.752934587762642e-74</v>
+        <v>2.179542287274404e-75</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6308</v>
+        <v>6317</v>
       </c>
       <c r="I26" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="J26" t="n">
-        <v>6914</v>
+        <v>6925</v>
       </c>
       <c r="K26" t="n">
-        <v>0.08764824992768296</v>
+        <v>0.08779783393501805</v>
       </c>
     </row>
     <row r="27">
@@ -1535,10 +1535,10 @@
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>335.8134709170386</v>
+        <v>346.602411731557</v>
       </c>
       <c r="F27" t="n">
-        <v>6.459790618508831e-67</v>
+        <v>3.275009766285184e-69</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1546,16 +1546,16 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3088</v>
+        <v>3096</v>
       </c>
       <c r="I27" t="n">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="J27" t="n">
-        <v>3739</v>
+        <v>3755</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1741107247927253</v>
+        <v>0.1754993342210386</v>
       </c>
     </row>
     <row r="28">
@@ -1578,10 +1578,10 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>335.8134709170386</v>
+        <v>346.602411731557</v>
       </c>
       <c r="F28" t="n">
-        <v>6.459790618508831e-67</v>
+        <v>3.275009766285184e-69</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1592,13 +1592,13 @@
         <v>4732</v>
       </c>
       <c r="I28" t="n">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J28" t="n">
-        <v>5334</v>
+        <v>5333</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1128608923884514</v>
+        <v>0.1126945434089631</v>
       </c>
     </row>
     <row r="29">
@@ -1621,10 +1621,10 @@
         <v>10</v>
       </c>
       <c r="E29" t="n">
-        <v>335.8134709170386</v>
+        <v>346.602411731557</v>
       </c>
       <c r="F29" t="n">
-        <v>6.459790618508831e-67</v>
+        <v>3.275009766285184e-69</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1632,16 +1632,16 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I29" t="n">
         <v>10</v>
       </c>
       <c r="J29" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K29" t="n">
-        <v>0.06097560975609756</v>
+        <v>0.06134969325153374</v>
       </c>
     </row>
     <row r="30">
@@ -1664,10 +1664,10 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>335.8134709170386</v>
+        <v>346.602411731557</v>
       </c>
       <c r="F30" t="n">
-        <v>6.459790618508831e-67</v>
+        <v>3.275009766285184e-69</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1675,16 +1675,16 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I30" t="n">
         <v>44</v>
       </c>
       <c r="J30" t="n">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K30" t="n">
-        <v>0.05789473684210526</v>
+        <v>0.05797101449275362</v>
       </c>
     </row>
     <row r="31">
@@ -1707,10 +1707,10 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>335.8134709170386</v>
+        <v>346.602411731557</v>
       </c>
       <c r="F31" t="n">
-        <v>6.459790618508831e-67</v>
+        <v>3.275009766285184e-69</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1718,16 +1718,16 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I31" t="n">
         <v>21</v>
       </c>
       <c r="J31" t="n">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0498812351543943</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="32">
@@ -1750,10 +1750,10 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>335.8134709170386</v>
+        <v>346.602411731557</v>
       </c>
       <c r="F32" t="n">
-        <v>6.459790618508831e-67</v>
+        <v>3.275009766285184e-69</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1761,16 +1761,16 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="I32" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J32" t="n">
         <v>2376</v>
       </c>
       <c r="K32" t="n">
-        <v>0.04671717171717172</v>
+        <v>0.04587542087542087</v>
       </c>
     </row>
     <row r="33">
@@ -1793,10 +1793,10 @@
         <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>335.8134709170386</v>
+        <v>346.602411731557</v>
       </c>
       <c r="F33" t="n">
-        <v>6.459790618508831e-67</v>
+        <v>3.275009766285184e-69</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J33" t="n">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K33" t="n">
-        <v>0.02901785714285714</v>
+        <v>0.02690582959641256</v>
       </c>
     </row>
     <row r="34">
@@ -1836,10 +1836,10 @@
         <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>109.391853707005</v>
+        <v>109.1455868090539</v>
       </c>
       <c r="F34" t="n">
-        <v>1.331757529725758e-25</v>
+        <v>1.507933417490376e-25</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1848,13 +1848,13 @@
         <v>6864</v>
       </c>
       <c r="I34" t="n">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="J34" t="n">
-        <v>7917</v>
+        <v>7919</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1330049261083744</v>
+        <v>0.1332238919055436</v>
       </c>
     </row>
     <row r="35">
@@ -1877,25 +1877,25 @@
         <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>109.391853707005</v>
+        <v>109.1455868090539</v>
       </c>
       <c r="F35" t="n">
-        <v>1.331757529725758e-25</v>
+        <v>1.507933417490376e-25</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>4926</v>
+        <v>4932</v>
       </c>
       <c r="I35" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J35" t="n">
-        <v>5325</v>
+        <v>5333</v>
       </c>
       <c r="K35" t="n">
-        <v>0.07492957746478873</v>
+        <v>0.07519219951246953</v>
       </c>
     </row>
     <row r="36">
@@ -1918,25 +1918,25 @@
         <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>86.00805738538253</v>
+        <v>86.92340326302833</v>
       </c>
       <c r="F36" t="n">
-        <v>1.792039823210119e-20</v>
+        <v>1.128065634331642e-20</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>7714</v>
+        <v>7684</v>
       </c>
       <c r="I36" t="n">
         <v>1127</v>
       </c>
       <c r="J36" t="n">
-        <v>8841</v>
+        <v>8811</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1274742676167854</v>
+        <v>0.1279082964476223</v>
       </c>
     </row>
     <row r="37">
@@ -1959,25 +1959,25 @@
         <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>86.00805738538253</v>
+        <v>86.92340326302833</v>
       </c>
       <c r="F37" t="n">
-        <v>1.792039823210119e-20</v>
+        <v>1.128065634331642e-20</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>4076</v>
+        <v>4112</v>
       </c>
       <c r="I37" t="n">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J37" t="n">
-        <v>4401</v>
+        <v>4441</v>
       </c>
       <c r="K37" t="n">
-        <v>0.07384685298795728</v>
+        <v>0.07408241387074983</v>
       </c>
     </row>
     <row r="38">
@@ -2000,25 +2000,25 @@
         <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>42.314501917315</v>
+        <v>42.23504842217222</v>
       </c>
       <c r="F38" t="n">
-        <v>7.771416267429973e-11</v>
+        <v>8.093643014044539e-11</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="I38" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J38" t="n">
-        <v>1591</v>
+        <v>1596</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1577624135763671</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="39">
@@ -2041,25 +2041,25 @@
         <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>42.314501917315</v>
+        <v>42.23504842217222</v>
       </c>
       <c r="F39" t="n">
-        <v>7.771416267429973e-11</v>
+        <v>8.093643014044539e-11</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>10450</v>
+        <v>10452</v>
       </c>
       <c r="I39" t="n">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="J39" t="n">
-        <v>11651</v>
+        <v>11656</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1030812805767745</v>
+        <v>0.1032944406314344</v>
       </c>
     </row>
     <row r="40">
@@ -2082,25 +2082,25 @@
         <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>34.81280277953115</v>
+        <v>35.06926536617871</v>
       </c>
       <c r="F40" t="n">
-        <v>3.629786486834646e-09</v>
+        <v>3.181833609544766e-09</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>6020</v>
+        <v>6034</v>
       </c>
       <c r="I40" t="n">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="J40" t="n">
-        <v>6881</v>
+        <v>6899</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1251271617497457</v>
+        <v>0.1253804899260763</v>
       </c>
     </row>
     <row r="41">
@@ -2123,25 +2123,25 @@
         <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>34.81280277953115</v>
+        <v>35.06926536617871</v>
       </c>
       <c r="F41" t="n">
-        <v>3.629786486834646e-09</v>
+        <v>3.181833609544766e-09</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>5770</v>
+        <v>5762</v>
       </c>
       <c r="I41" t="n">
         <v>591</v>
       </c>
       <c r="J41" t="n">
-        <v>6361</v>
+        <v>6353</v>
       </c>
       <c r="K41" t="n">
-        <v>0.09290991982392706</v>
+        <v>0.09302691641744058</v>
       </c>
     </row>
   </sheetData>
